--- a/biology/Médecine/Jules_Guérin_(médecin)/Jules_Guérin_(médecin).xlsx
+++ b/biology/Médecine/Jules_Guérin_(médecin)/Jules_Guérin_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jules_Gu%C3%A9rin_(m%C3%A9decin)</t>
+          <t>Jules_Guérin_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Guérin, né le 11 mars 1801 à Boussu et mort le 25 janvier 1886 à Hyères, est un médecin belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jules_Gu%C3%A9rin_(m%C3%A9decin)</t>
+          <t>Jules_Guérin_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il étudia de 1821 à 1826 à l'Université d'État de Louvain.
 Il prit la direction en 1828 de la Gazette de la santé qui devint plus tard la Gazette médicale de Paris. Il est l'un des premiers journalistes spécialisés dans une matière particulière.
-En 1835 il fonda, avec Charles Pravaz le célèbre établissement orthopédique appelé l’Institut orthopédique de Paris[1] au château de la Muette, à Passy. 
+En 1835 il fonda, avec Charles Pravaz le célèbre établissement orthopédique appelé l’Institut orthopédique de Paris au château de la Muette, à Passy. 
 Il eut une grande influence sur le développement de la science orthopédique.
-Le docteur Démétrius Zambaco le mentionne en 1882 comme un précieux conseil pour le traitement de l'onanisme juvénile[2] :
+Le docteur Démétrius Zambaco le mentionne en 1882 comme un précieux conseil pour le traitement de l'onanisme juvénile :
 Pendant mon voyage à Londres, pour assister au Congrès médical international j'ai eu la chance de me rencontrer avec M. le Dr Jules Guérin. J'ai soumis à notre éminent confrère le cas désespérant de ces deux enfants et lui demandai son avis. M. le Dr J. Guérin m'a affirmé avoir guéri des jeunes filles affectées du vice de l'onanisme et lorsque tout traitement avait échoué, en brûlant le clitoris au fer rouge.</t>
         </is>
       </c>
